--- a/12_家計簿.xlsx
+++ b/12_家計簿.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\am\Documents\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44EBB68-DC37-4B79-96AF-5BE19EFB42CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4452" yWindow="1368" windowWidth="17280" windowHeight="8964" xr2:uid="{098F4BB3-24DD-48A5-8322-A947D43A3954}"/>
+    <workbookView xWindow="4452" yWindow="1368" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1月" sheetId="1" r:id="rId1"/>
+    <sheet name="２月" sheetId="2" r:id="rId2"/>
+    <sheet name="3月" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1月'!$A$6:$E$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'２月'!$A$6:$E$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3月'!$A$6:$E$17</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>かんたん家計簿</t>
     <rPh sb="4" eb="7">
@@ -199,7 +205,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,13 +381,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -389,7 +395,38 @@
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -705,7 +742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8890CA-2BA2-4708-87E4-1E8D558A8FA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -718,13 +755,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
@@ -736,7 +773,7 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -744,11 +781,11 @@
       <c r="A4" s="4">
         <v>200000</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <f>SUM(C7:C18)</f>
         <v>165910</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <f>A4-B4</f>
         <v>34090</v>
       </c>
@@ -800,7 +837,7 @@
       <c r="C8" s="4">
         <v>20000</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <f>D7+C8</f>
         <v>55000</v>
       </c>
@@ -816,7 +853,7 @@
       <c r="C9" s="4">
         <v>3650</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <f>D8+C9</f>
         <v>58650</v>
       </c>
@@ -832,7 +869,7 @@
       <c r="C10" s="4">
         <v>3000</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <f t="shared" ref="D10:D17" si="0">D9+C10</f>
         <v>61650</v>
       </c>
@@ -848,7 +885,7 @@
       <c r="C11" s="4">
         <v>800</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <f t="shared" si="0"/>
         <v>62450</v>
       </c>
@@ -864,7 +901,7 @@
       <c r="C12" s="4">
         <v>4000</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <f t="shared" si="0"/>
         <v>66450</v>
       </c>
@@ -882,7 +919,7 @@
       <c r="C13" s="4">
         <v>4200</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <f t="shared" si="0"/>
         <v>70650</v>
       </c>
@@ -898,7 +935,7 @@
       <c r="C14" s="4">
         <v>1800</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <f t="shared" si="0"/>
         <v>72450</v>
       </c>
@@ -916,7 +953,7 @@
       <c r="C15" s="4">
         <v>12800</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <f t="shared" si="0"/>
         <v>85250</v>
       </c>
@@ -932,7 +969,7 @@
       <c r="C16" s="4">
         <v>75400</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <f t="shared" si="0"/>
         <v>160650</v>
       </c>
@@ -950,7 +987,7 @@
       <c r="C17" s="4">
         <v>5260</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <f t="shared" si="0"/>
         <v>165910</v>
       </c>
@@ -966,10 +1003,416 @@
       <c r="E18" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A6:E17"/>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="D7:D17">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>$E$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="5" width="11.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="4"/>
+      <c r="B4" s="12">
+        <f>SUM(C7:C18)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="12">
+        <f>A4-B4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f>A4*0.8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="7"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10">
+        <f>C7</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="8"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="12">
+        <f>D7+C8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="8"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="12">
+        <f>D8+C9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="12">
+        <f t="shared" ref="D10:D17" si="0">D9+C10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="8"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="8"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="8"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="8"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="8"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="8"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="8"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="9"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A6:E17"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="D7:D17">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>$E$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="5" width="11.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="4"/>
+      <c r="B4" s="12">
+        <f>SUM(C7:C18)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="12">
+        <f>A4-B4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f>A4*0.8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="7"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10">
+        <f>C7</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="8"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="12">
+        <f>D7+C8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="8"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="12">
+        <f>D8+C9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="12">
+        <f t="shared" ref="D10:D17" si="0">D9+C10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="8"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="8"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="8"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="8"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="8"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="8"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="8"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="9"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A6:E17"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="D7:D17">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>$E$4</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>